--- a/testes/recente/26-06/análise.xlsx
+++ b/testes/recente/26-06/análise.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="203">
   <si>
     <t xml:space="preserve">Table A.7</t>
   </si>
@@ -325,6 +325,9 @@
     <t xml:space="preserve">α = 0.</t>
   </si>
   <si>
+    <t xml:space="preserve">Comparações</t>
+  </si>
+  <si>
     <t xml:space="preserve">CPU time (m)</t>
   </si>
   <si>
@@ -332,6 +335,9 @@
   </si>
   <si>
     <t xml:space="preserve">GRASP - EDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPUTime</t>
   </si>
   <si>
     <t xml:space="preserve">20.97%</t>
@@ -454,6 +460,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.94%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,'file:///media/pedro/Extra/UFV/2024-1/flowshop/implementacao/testes/recente/26-06/análise.xlsx'#$Comparacoes.AB45=H67</t>
   </si>
   <si>
     <t xml:space="preserve">18.50%</t>
@@ -635,7 +644,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -662,6 +671,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -706,7 +725,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -727,7 +746,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -751,6 +770,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,7 +783,1947 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFC5000B"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF7E0021"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0084D1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF83CAFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FFAECF00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF950E"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF314004"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF4B1F6F"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Comp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Comparacoes!$AH$44:$AM$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ILS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GRASP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>IGA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacoes!$AH$46:$AM$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.030178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Comparacoes!$AH$44:$AM$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ILS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GRASP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>IGA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacoes!$AH$47:$AM$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4090</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0472831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Comparacoes!$AH$44:$AM$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ILS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GRASP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>IGA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacoes!$AH$48:$AM$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3390</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2729</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0994468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Comparacoes!$AH$44:$AM$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ILS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GRASP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>IGA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacoes!$AH$49:$AM$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0877988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Comparacoes!$AH$44:$AM$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ILS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GRASP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>IGA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacoes!$AH$50:$AM$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.830876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Comparacoes!$AH$44:$AM$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ILS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GRASP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>IGA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacoes!$AH$51:$AM$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9527</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.90078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="314004"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Comparacoes!$AH$44:$AM$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ILS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GRASP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>IGA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacoes!$AH$52:$AM$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.658695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="aecf00"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Comparacoes!$AH$44:$AM$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ILS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GRASP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>IGA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacoes!$AH$53:$AM$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11482</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.796222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4b1f6f"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Comparacoes!$AH$44:$AM$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ILS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GRASP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>IGA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacoes!$AH$54:$AM$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.03733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff950e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Comparacoes!$AH$44:$AM$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ILS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GRASP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>IGA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacoes!$AH$55:$AM$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.24303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c5000b"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Comparacoes!$AH$44:$AM$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ILS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GRASP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>IGA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacoes!$AH$56:$AM$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.0529</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0084d1"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Comparacoes!$AH$44:$AM$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ILS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GRASP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>IGA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacoes!$AH$57:$AM$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.04642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Comparacoes!$AH$44:$AM$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ILS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GRASP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>IGA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacoes!$AH$58:$AM$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.01526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Comparacoes!$AH$44:$AM$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ILS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GRASP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>IGA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacoes!$AH$59:$AM$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18927</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15486</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.8354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Comparacoes!$AH$44:$AM$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tmax</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CPUTime</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ILS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GRASP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>IGA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacoes!$AH$60:$AM$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6369</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.9735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="70661781"/>
+        <c:axId val="66894857"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="70661781"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66894857"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66894857"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70661781"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>765360</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>768240</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="21915360" y="8131680"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -768,10 +2731,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL101"/>
+  <dimension ref="A1:AN101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q61" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X78" activeCellId="0" sqref="X78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U41" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF41" activeCellId="0" sqref="AF41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -792,7 +2755,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="1" width="13.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="28" style="1" width="11.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="13.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="11.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="8.98"/>
@@ -4055,11 +6018,15 @@
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
       <c r="AF43" s="10"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="3"/>
-      <c r="AJ43" s="3"/>
-      <c r="AK43" s="3"/>
+      <c r="AG43" s="0"/>
+      <c r="AH43" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="2" t="s">
@@ -4112,9 +6079,20 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="10"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
+      <c r="AG44" s="0"/>
+      <c r="AH44" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK44" s="11"/>
+      <c r="AL44" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM44" s="11"/>
+      <c r="AN44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
@@ -4133,25 +6111,25 @@
         <v>18</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M45" s="0" t="s">
         <v>18</v>
@@ -4210,6 +6188,24 @@
       </c>
       <c r="AF45" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="AH45" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI45" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ45" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK45" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL45" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM45" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4244,10 +6240,10 @@
         <v>0.95</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M46" s="0" t="n">
         <v>2068</v>
@@ -4314,6 +6310,30 @@
         <f aca="false">(W46-Z46)/Z46*100</f>
         <v>1.42348754448399</v>
       </c>
+      <c r="AH46" s="1" t="n">
+        <f aca="false">G46</f>
+        <v>1636</v>
+      </c>
+      <c r="AI46" s="1" t="n">
+        <f aca="false">H46</f>
+        <v>0.72</v>
+      </c>
+      <c r="AJ46" s="1" t="n">
+        <f aca="false">I46</f>
+        <v>1943</v>
+      </c>
+      <c r="AK46" s="1" t="n">
+        <f aca="false">J46</f>
+        <v>0.95</v>
+      </c>
+      <c r="AL46" s="1" t="n">
+        <f aca="false">W46</f>
+        <v>1425</v>
+      </c>
+      <c r="AM46" s="1" t="n">
+        <f aca="false">X46</f>
+        <v>0.030178</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -4347,10 +6367,10 @@
         <v>0.93</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M47" s="0" t="n">
         <v>4529</v>
@@ -4417,6 +6437,30 @@
         <f aca="false">(W47-Z47)/Z47*100</f>
         <v>0</v>
       </c>
+      <c r="AH47" s="1" t="n">
+        <f aca="false">G47</f>
+        <v>4090</v>
+      </c>
+      <c r="AI47" s="1" t="n">
+        <f aca="false">H47</f>
+        <v>0.71</v>
+      </c>
+      <c r="AJ47" s="1" t="n">
+        <f aca="false">I47</f>
+        <v>4223</v>
+      </c>
+      <c r="AK47" s="1" t="n">
+        <f aca="false">J47</f>
+        <v>0.93</v>
+      </c>
+      <c r="AL47" s="1" t="n">
+        <f aca="false">W47</f>
+        <v>3776</v>
+      </c>
+      <c r="AM47" s="1" t="n">
+        <f aca="false">X47</f>
+        <v>0.0472831</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
@@ -4450,10 +6494,10 @@
         <v>1.3</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M48" s="0" t="n">
         <v>3664</v>
@@ -4520,6 +6564,30 @@
         <f aca="false">(W48-Z48)/Z48*100</f>
         <v>0</v>
       </c>
+      <c r="AH48" s="1" t="n">
+        <f aca="false">G48</f>
+        <v>2998</v>
+      </c>
+      <c r="AI48" s="1" t="n">
+        <f aca="false">H48</f>
+        <v>0.96</v>
+      </c>
+      <c r="AJ48" s="1" t="n">
+        <f aca="false">I48</f>
+        <v>3390</v>
+      </c>
+      <c r="AK48" s="1" t="n">
+        <f aca="false">J48</f>
+        <v>1.3</v>
+      </c>
+      <c r="AL48" s="1" t="n">
+        <f aca="false">W48</f>
+        <v>2729</v>
+      </c>
+      <c r="AM48" s="1" t="n">
+        <f aca="false">X48</f>
+        <v>0.0994468</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
@@ -4553,10 +6621,10 @@
         <v>1.38</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M49" s="0" t="n">
         <v>6392</v>
@@ -4623,6 +6691,30 @@
         <f aca="false">(W49-Z49)/Z49*100</f>
         <v>0</v>
       </c>
+      <c r="AH49" s="1" t="n">
+        <f aca="false">G49</f>
+        <v>5503</v>
+      </c>
+      <c r="AI49" s="1" t="n">
+        <f aca="false">H49</f>
+        <v>0.95</v>
+      </c>
+      <c r="AJ49" s="1" t="n">
+        <f aca="false">I49</f>
+        <v>5928</v>
+      </c>
+      <c r="AK49" s="1" t="n">
+        <f aca="false">J49</f>
+        <v>1.38</v>
+      </c>
+      <c r="AL49" s="1" t="n">
+        <f aca="false">W49</f>
+        <v>5141</v>
+      </c>
+      <c r="AM49" s="1" t="n">
+        <f aca="false">X49</f>
+        <v>0.0877988</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
@@ -4656,10 +6748,10 @@
         <v>5.77</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M50" s="0" t="n">
         <v>4383</v>
@@ -4726,6 +6818,30 @@
         <f aca="false">(W50-Z50)/Z50*100</f>
         <v>0</v>
       </c>
+      <c r="AH50" s="1" t="n">
+        <f aca="false">G50</f>
+        <v>3684</v>
+      </c>
+      <c r="AI50" s="1" t="n">
+        <f aca="false">H50</f>
+        <v>4.61</v>
+      </c>
+      <c r="AJ50" s="1" t="n">
+        <f aca="false">I50</f>
+        <v>4348</v>
+      </c>
+      <c r="AK50" s="1" t="n">
+        <f aca="false">J50</f>
+        <v>5.77</v>
+      </c>
+      <c r="AL50" s="1" t="n">
+        <f aca="false">W50</f>
+        <v>3008</v>
+      </c>
+      <c r="AM50" s="1" t="n">
+        <f aca="false">X50</f>
+        <v>0.830876</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
@@ -4759,10 +6875,10 @@
         <v>5.79</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M51" s="0" t="n">
         <v>9721</v>
@@ -4829,6 +6945,30 @@
         <f aca="false">(W51-Z51)/Z51*100</f>
         <v>0</v>
       </c>
+      <c r="AH51" s="1" t="n">
+        <f aca="false">G51</f>
+        <v>8863</v>
+      </c>
+      <c r="AI51" s="1" t="n">
+        <f aca="false">H51</f>
+        <v>4.49</v>
+      </c>
+      <c r="AJ51" s="1" t="n">
+        <f aca="false">I51</f>
+        <v>9527</v>
+      </c>
+      <c r="AK51" s="1" t="n">
+        <f aca="false">J51</f>
+        <v>5.79</v>
+      </c>
+      <c r="AL51" s="1" t="n">
+        <f aca="false">W51</f>
+        <v>7997</v>
+      </c>
+      <c r="AM51" s="1" t="n">
+        <f aca="false">X51</f>
+        <v>2.90078</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
@@ -4862,10 +7002,10 @@
         <v>6.71</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M52" s="0" t="n">
         <v>6801</v>
@@ -4932,6 +7072,30 @@
         <f aca="false">(W52-Z52)/Z52*100</f>
         <v>2.91766586730616</v>
       </c>
+      <c r="AH52" s="1" t="n">
+        <f aca="false">G52</f>
+        <v>5732</v>
+      </c>
+      <c r="AI52" s="1" t="n">
+        <f aca="false">H52</f>
+        <v>5.41</v>
+      </c>
+      <c r="AJ52" s="1" t="n">
+        <f aca="false">I52</f>
+        <v>6546</v>
+      </c>
+      <c r="AK52" s="1" t="n">
+        <f aca="false">J52</f>
+        <v>6.71</v>
+      </c>
+      <c r="AL52" s="1" t="n">
+        <f aca="false">W52</f>
+        <v>5150</v>
+      </c>
+      <c r="AM52" s="1" t="n">
+        <f aca="false">X52</f>
+        <v>0.658695</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
@@ -4950,7 +7114,7 @@
         <v>11392</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>10707</v>
@@ -4965,10 +7129,10 @@
         <v>6.9</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M53" s="0" t="n">
         <v>11378</v>
@@ -5035,6 +7199,30 @@
         <f aca="false">(W53-Z53)/Z53*100</f>
         <v>0</v>
       </c>
+      <c r="AH53" s="1" t="n">
+        <f aca="false">G53</f>
+        <v>10707</v>
+      </c>
+      <c r="AI53" s="1" t="n">
+        <f aca="false">H53</f>
+        <v>5.52</v>
+      </c>
+      <c r="AJ53" s="1" t="n">
+        <f aca="false">I53</f>
+        <v>11482</v>
+      </c>
+      <c r="AK53" s="1" t="n">
+        <f aca="false">J53</f>
+        <v>6.9</v>
+      </c>
+      <c r="AL53" s="1" t="n">
+        <f aca="false">W53</f>
+        <v>10086</v>
+      </c>
+      <c r="AM53" s="1" t="n">
+        <f aca="false">X53</f>
+        <v>0.796222</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
@@ -5068,10 +7256,10 @@
         <v>15.29</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M54" s="0" t="n">
         <v>5525</v>
@@ -5138,6 +7326,30 @@
         <f aca="false">(W54-Z54)/Z54*100</f>
         <v>0</v>
       </c>
+      <c r="AH54" s="1" t="n">
+        <f aca="false">G54</f>
+        <v>4157</v>
+      </c>
+      <c r="AI54" s="1" t="n">
+        <f aca="false">H54</f>
+        <v>11.31</v>
+      </c>
+      <c r="AJ54" s="1" t="n">
+        <f aca="false">I54</f>
+        <v>5238</v>
+      </c>
+      <c r="AK54" s="1" t="n">
+        <f aca="false">J54</f>
+        <v>15.29</v>
+      </c>
+      <c r="AL54" s="1" t="n">
+        <f aca="false">W54</f>
+        <v>3012</v>
+      </c>
+      <c r="AM54" s="1" t="n">
+        <f aca="false">X54</f>
+        <v>2.03733</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
@@ -5171,10 +7383,10 @@
         <v>15.94</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M55" s="0" t="n">
         <v>13657</v>
@@ -5242,11 +7454,30 @@
         <v>84252.856109906</v>
       </c>
       <c r="AG55" s="3"/>
-      <c r="AH55" s="3"/>
-      <c r="AI55" s="3"/>
-      <c r="AJ55" s="3"/>
-      <c r="AK55" s="3"/>
-      <c r="AL55" s="3"/>
+      <c r="AH55" s="1" t="n">
+        <f aca="false">G55</f>
+        <v>12714</v>
+      </c>
+      <c r="AI55" s="1" t="n">
+        <f aca="false">H55</f>
+        <v>11.34</v>
+      </c>
+      <c r="AJ55" s="1" t="n">
+        <f aca="false">I55</f>
+        <v>13.83</v>
+      </c>
+      <c r="AK55" s="1" t="n">
+        <f aca="false">J55</f>
+        <v>15.94</v>
+      </c>
+      <c r="AL55" s="1" t="n">
+        <f aca="false">W55</f>
+        <v>11666</v>
+      </c>
+      <c r="AM55" s="1" t="n">
+        <f aca="false">X55</f>
+        <v>2.24303</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
@@ -5280,10 +7511,10 @@
         <v>19.47</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M56" s="0" t="n">
         <v>7885</v>
@@ -5351,11 +7582,30 @@
         <v>0</v>
       </c>
       <c r="AG56" s="2"/>
-      <c r="AH56" s="2"/>
-      <c r="AI56" s="2"/>
-      <c r="AJ56" s="2"/>
-      <c r="AK56" s="2"/>
-      <c r="AL56" s="2"/>
+      <c r="AH56" s="1" t="n">
+        <f aca="false">G56</f>
+        <v>7120</v>
+      </c>
+      <c r="AI56" s="1" t="n">
+        <f aca="false">H56</f>
+        <v>13.28</v>
+      </c>
+      <c r="AJ56" s="1" t="n">
+        <f aca="false">I56</f>
+        <v>7987</v>
+      </c>
+      <c r="AK56" s="1" t="n">
+        <f aca="false">J56</f>
+        <v>19.47</v>
+      </c>
+      <c r="AL56" s="1" t="n">
+        <f aca="false">W56</f>
+        <v>5625</v>
+      </c>
+      <c r="AM56" s="1" t="n">
+        <f aca="false">X56</f>
+        <v>23.0529</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
@@ -5389,10 +7639,10 @@
         <v>17.54</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M57" s="0" t="n">
         <v>16612</v>
@@ -5459,6 +7709,30 @@
         <f aca="false">(W57-Z57)/Z57*100</f>
         <v>86636.3245236632</v>
       </c>
+      <c r="AH57" s="1" t="n">
+        <f aca="false">G57</f>
+        <v>15609</v>
+      </c>
+      <c r="AI57" s="1" t="n">
+        <f aca="false">H57</f>
+        <v>12.81</v>
+      </c>
+      <c r="AJ57" s="1" t="n">
+        <f aca="false">I57</f>
+        <v>16.27</v>
+      </c>
+      <c r="AK57" s="1" t="n">
+        <f aca="false">J57</f>
+        <v>17.54</v>
+      </c>
+      <c r="AL57" s="1" t="n">
+        <f aca="false">W57</f>
+        <v>14112</v>
+      </c>
+      <c r="AM57" s="1" t="n">
+        <f aca="false">X57</f>
+        <v>6.04642</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
@@ -5492,10 +7766,10 @@
         <v>32.37</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M58" s="0" t="n">
         <v>7549</v>
@@ -5562,6 +7836,30 @@
         <f aca="false">(W58-Z58)/Z58*100</f>
         <v>2.34981610134859</v>
       </c>
+      <c r="AH58" s="1" t="n">
+        <f aca="false">G58</f>
+        <v>6302</v>
+      </c>
+      <c r="AI58" s="1" t="n">
+        <f aca="false">H58</f>
+        <v>20.21</v>
+      </c>
+      <c r="AJ58" s="1" t="n">
+        <f aca="false">I58</f>
+        <v>7461</v>
+      </c>
+      <c r="AK58" s="1" t="n">
+        <f aca="false">J58</f>
+        <v>32.37</v>
+      </c>
+      <c r="AL58" s="1" t="n">
+        <f aca="false">W58</f>
+        <v>5009</v>
+      </c>
+      <c r="AM58" s="1" t="n">
+        <f aca="false">X58</f>
+        <v>5.01526</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
@@ -5595,10 +7893,10 @@
         <v>31.27</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M59" s="0" t="n">
         <v>18744</v>
@@ -5665,6 +7963,30 @@
         <f aca="false">(W59-Z59)/Z59*100</f>
         <v>0</v>
       </c>
+      <c r="AH59" s="1" t="n">
+        <f aca="false">G59</f>
+        <v>17534</v>
+      </c>
+      <c r="AI59" s="1" t="n">
+        <f aca="false">H59</f>
+        <v>21.74</v>
+      </c>
+      <c r="AJ59" s="1" t="n">
+        <f aca="false">I59</f>
+        <v>18927</v>
+      </c>
+      <c r="AK59" s="1" t="n">
+        <f aca="false">J59</f>
+        <v>31.27</v>
+      </c>
+      <c r="AL59" s="1" t="n">
+        <f aca="false">W59</f>
+        <v>15486</v>
+      </c>
+      <c r="AM59" s="1" t="n">
+        <f aca="false">X59</f>
+        <v>73.8354</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
@@ -5698,10 +8020,10 @@
         <v>40.06</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>9734</v>
@@ -5768,6 +8090,30 @@
         <f aca="false">(W60-Z60)/Z60*100</f>
         <v>0</v>
       </c>
+      <c r="AH60" s="1" t="n">
+        <f aca="false">G60</f>
+        <v>7983</v>
+      </c>
+      <c r="AI60" s="1" t="n">
+        <f aca="false">H60</f>
+        <v>22.87</v>
+      </c>
+      <c r="AJ60" s="1" t="n">
+        <f aca="false">I60</f>
+        <v>9146</v>
+      </c>
+      <c r="AK60" s="1" t="n">
+        <f aca="false">J60</f>
+        <v>40.06</v>
+      </c>
+      <c r="AL60" s="1" t="n">
+        <f aca="false">W60</f>
+        <v>6369</v>
+      </c>
+      <c r="AM60" s="1" t="n">
+        <f aca="false">X60</f>
+        <v>27.9735</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
@@ -5801,10 +8147,10 @@
         <v>33.71</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M61" s="0"/>
       <c r="N61" s="0"/>
@@ -5837,10 +8183,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M63" s="0"/>
       <c r="N63" s="0"/>
@@ -5855,6 +8201,14 @@
       <c r="AA63" s="0"/>
       <c r="AB63" s="0"/>
       <c r="AF63" s="10"/>
+      <c r="AH63" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI63" s="11"/>
+      <c r="AJ63" s="11"/>
+      <c r="AK63" s="11"/>
+      <c r="AL63" s="11"/>
+      <c r="AM63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="2" t="s">
@@ -5904,6 +8258,18 @@
       <c r="AA64" s="0"/>
       <c r="AB64" s="0"/>
       <c r="AF64" s="10"/>
+      <c r="AH64" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI64" s="11"/>
+      <c r="AJ64" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK64" s="11"/>
+      <c r="AL64" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
@@ -5922,25 +8288,25 @@
         <v>18</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M65" s="0" t="s">
         <v>18</v>
@@ -5999,6 +8365,24 @@
       </c>
       <c r="AF65" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="AH65" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI65" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ65" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK65" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL65" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM65" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6033,10 +8417,10 @@
         <v>0.93</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M66" s="0" t="n">
         <v>7030.77</v>
@@ -6103,6 +8487,30 @@
         <f aca="false">(W66-Z66)/Z66*100</f>
         <v>2.71447349099414</v>
       </c>
+      <c r="AH66" s="1" t="n">
+        <f aca="false">G66</f>
+        <v>5979.02</v>
+      </c>
+      <c r="AI66" s="1" t="n">
+        <f aca="false">H66</f>
+        <v>0.69</v>
+      </c>
+      <c r="AJ66" s="1" t="n">
+        <f aca="false">I66</f>
+        <v>6598.02</v>
+      </c>
+      <c r="AK66" s="1" t="n">
+        <f aca="false">J66</f>
+        <v>0.93</v>
+      </c>
+      <c r="AL66" s="1" t="n">
+        <f aca="false">W66</f>
+        <v>5735.72</v>
+      </c>
+      <c r="AM66" s="1" t="n">
+        <f aca="false">X66</f>
+        <v>0.0365018</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
@@ -6136,10 +8544,10 @@
         <v>0.93</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M67" s="0" t="n">
         <v>9566.41</v>
@@ -6207,10 +8615,29 @@
         <v>0.205978073621668</v>
       </c>
       <c r="AG67" s="2"/>
-      <c r="AH67" s="2"/>
-      <c r="AI67" s="3"/>
-      <c r="AJ67" s="3"/>
-      <c r="AK67" s="3"/>
+      <c r="AH67" s="1" t="n">
+        <f aca="false">G67</f>
+        <v>8380.91</v>
+      </c>
+      <c r="AI67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ67" s="1" t="n">
+        <f aca="false">I67</f>
+        <v>8898.43</v>
+      </c>
+      <c r="AK67" s="1" t="n">
+        <f aca="false">J67</f>
+        <v>0.93</v>
+      </c>
+      <c r="AL67" s="1" t="n">
+        <f aca="false">W67</f>
+        <v>8085.44</v>
+      </c>
+      <c r="AM67" s="1" t="n">
+        <f aca="false">X67</f>
+        <v>0.0432188</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
@@ -6244,10 +8671,10 @@
         <v>1.37</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M68" s="0" t="n">
         <v>10500.8</v>
@@ -6314,9 +8741,30 @@
         <f aca="false">(W68-Z68)/Z68*100</f>
         <v>1.25241452667891</v>
       </c>
-      <c r="AI68" s="2"/>
-      <c r="AJ68" s="2"/>
-      <c r="AK68" s="2"/>
+      <c r="AH68" s="1" t="n">
+        <f aca="false">G68</f>
+        <v>8558.23</v>
+      </c>
+      <c r="AI68" s="1" t="n">
+        <f aca="false">H68</f>
+        <v>1.07</v>
+      </c>
+      <c r="AJ68" s="1" t="n">
+        <f aca="false">I68</f>
+        <v>9747.82</v>
+      </c>
+      <c r="AK68" s="1" t="n">
+        <f aca="false">J68</f>
+        <v>1.37</v>
+      </c>
+      <c r="AL68" s="1" t="n">
+        <f aca="false">W68</f>
+        <v>8224.44</v>
+      </c>
+      <c r="AM68" s="1" t="n">
+        <f aca="false">X68</f>
+        <v>0.088591</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
@@ -6350,10 +8798,10 @@
         <v>1.32</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M69" s="0" t="n">
         <v>12866.8</v>
@@ -6420,6 +8868,30 @@
         <f aca="false">(W69-Z69)/Z69*100</f>
         <v>0</v>
       </c>
+      <c r="AH69" s="1" t="n">
+        <f aca="false">G69</f>
+        <v>11299.49</v>
+      </c>
+      <c r="AI69" s="1" t="n">
+        <f aca="false">H69</f>
+        <v>1.07</v>
+      </c>
+      <c r="AJ69" s="1" t="n">
+        <f aca="false">I69</f>
+        <v>12085.49</v>
+      </c>
+      <c r="AK69" s="1" t="n">
+        <f aca="false">J69</f>
+        <v>1.32</v>
+      </c>
+      <c r="AL69" s="1" t="n">
+        <f aca="false">W69</f>
+        <v>10637.2</v>
+      </c>
+      <c r="AM69" s="1" t="n">
+        <f aca="false">X69</f>
+        <v>0.0852506</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
@@ -6453,10 +8925,10 @@
         <v>5.77</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M70" s="0" t="n">
         <v>20451.7</v>
@@ -6523,6 +8995,30 @@
         <f aca="false">(W70-Z70)/Z70*100</f>
         <v>0</v>
       </c>
+      <c r="AH70" s="1" t="n">
+        <f aca="false">G70</f>
+        <v>18371.1</v>
+      </c>
+      <c r="AI70" s="1" t="n">
+        <f aca="false">H70</f>
+        <v>4.47</v>
+      </c>
+      <c r="AJ70" s="1" t="n">
+        <f aca="false">I70</f>
+        <v>19353.86</v>
+      </c>
+      <c r="AK70" s="1" t="n">
+        <f aca="false">J70</f>
+        <v>5.77</v>
+      </c>
+      <c r="AL70" s="1" t="n">
+        <f aca="false">W70</f>
+        <v>16044.3</v>
+      </c>
+      <c r="AM70" s="1" t="n">
+        <f aca="false">X70</f>
+        <v>7.94328</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
@@ -6556,10 +9052,10 @@
         <v>5.76</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M71" s="0" t="n">
         <v>25316.9</v>
@@ -6626,6 +9122,30 @@
         <f aca="false">(W71-Z71)/Z71*100</f>
         <v>0</v>
       </c>
+      <c r="AH71" s="1" t="n">
+        <f aca="false">G71</f>
+        <v>23565.34</v>
+      </c>
+      <c r="AI71" s="1" t="n">
+        <f aca="false">H71</f>
+        <v>4.5</v>
+      </c>
+      <c r="AJ71" s="1" t="n">
+        <f aca="false">I71</f>
+        <v>24736.24</v>
+      </c>
+      <c r="AK71" s="1" t="n">
+        <f aca="false">J71</f>
+        <v>5.76</v>
+      </c>
+      <c r="AL71" s="1" t="n">
+        <f aca="false">W71</f>
+        <v>21692.4</v>
+      </c>
+      <c r="AM71" s="1" t="n">
+        <f aca="false">X71</f>
+        <v>0.684193</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
@@ -6659,10 +9179,10 @@
         <v>6.84</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M72" s="0" t="n">
         <v>24923.7</v>
@@ -6729,6 +9249,30 @@
         <f aca="false">(W72-Z72)/Z72*100</f>
         <v>0</v>
       </c>
+      <c r="AH72" s="1" t="n">
+        <f aca="false">G72</f>
+        <v>22809.34</v>
+      </c>
+      <c r="AI72" s="1" t="n">
+        <f aca="false">H72</f>
+        <v>5.44</v>
+      </c>
+      <c r="AJ72" s="1" t="n">
+        <f aca="false">I72</f>
+        <v>24035.55</v>
+      </c>
+      <c r="AK72" s="1" t="n">
+        <f aca="false">J72</f>
+        <v>6.84</v>
+      </c>
+      <c r="AL72" s="1" t="n">
+        <f aca="false">W72</f>
+        <v>21003.7</v>
+      </c>
+      <c r="AM72" s="1" t="n">
+        <f aca="false">X72</f>
+        <v>6.62718</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
@@ -6762,10 +9306,10 @@
         <v>6.79</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M73" s="0" t="n">
         <v>29739.7</v>
@@ -6832,6 +9376,30 @@
         <v>0</v>
       </c>
       <c r="AG73" s="10"/>
+      <c r="AH73" s="1" t="n">
+        <f aca="false">G73</f>
+        <v>28389.76</v>
+      </c>
+      <c r="AI73" s="1" t="n">
+        <f aca="false">H73</f>
+        <v>5.56</v>
+      </c>
+      <c r="AJ73" s="1" t="n">
+        <f aca="false">I73</f>
+        <v>29233.62</v>
+      </c>
+      <c r="AK73" s="1" t="n">
+        <f aca="false">J73</f>
+        <v>6.79</v>
+      </c>
+      <c r="AL73" s="1" t="n">
+        <f aca="false">W73</f>
+        <v>25930.3</v>
+      </c>
+      <c r="AM73" s="1" t="n">
+        <f aca="false">X73</f>
+        <v>8.92459</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
@@ -6865,10 +9433,10 @@
         <v>15.58</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M74" s="0" t="n">
         <v>33982.4</v>
@@ -6935,6 +9503,30 @@
         <v>1.91680861751831</v>
       </c>
       <c r="AG74" s="10"/>
+      <c r="AH74" s="1" t="n">
+        <f aca="false">G74</f>
+        <v>30648.09</v>
+      </c>
+      <c r="AI74" s="1" t="n">
+        <f aca="false">H74</f>
+        <v>11.38</v>
+      </c>
+      <c r="AJ74" s="1" t="n">
+        <f aca="false">I74</f>
+        <v>32411.85</v>
+      </c>
+      <c r="AK74" s="1" t="n">
+        <f aca="false">J74</f>
+        <v>15.58</v>
+      </c>
+      <c r="AL74" s="1" t="n">
+        <f aca="false">W74</f>
+        <v>26983.8</v>
+      </c>
+      <c r="AM74" s="1" t="n">
+        <f aca="false">X74</f>
+        <v>2.59704</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
@@ -6968,10 +9560,10 @@
         <v>24.06</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M75" s="0" t="n">
         <v>40810.2</v>
@@ -7038,6 +9630,30 @@
         <v>0</v>
       </c>
       <c r="AG75" s="10"/>
+      <c r="AH75" s="1" t="n">
+        <f aca="false">G75</f>
+        <v>38500.14</v>
+      </c>
+      <c r="AI75" s="1" t="n">
+        <f aca="false">H75</f>
+        <v>11.91</v>
+      </c>
+      <c r="AJ75" s="1" t="n">
+        <f aca="false">I75</f>
+        <v>40453</v>
+      </c>
+      <c r="AK75" s="1" t="n">
+        <f aca="false">J75</f>
+        <v>24.06</v>
+      </c>
+      <c r="AL75" s="1" t="n">
+        <f aca="false">W75</f>
+        <v>35084.3</v>
+      </c>
+      <c r="AM75" s="1" t="n">
+        <f aca="false">X75</f>
+        <v>256.947</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
@@ -7071,10 +9687,10 @@
         <v>18.31</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M76" s="0" t="n">
         <v>39723.7</v>
@@ -7141,6 +9757,30 @@
         <v>0.070624625644798</v>
       </c>
       <c r="AG76" s="10"/>
+      <c r="AH76" s="1" t="n">
+        <f aca="false">G76</f>
+        <v>36828.68</v>
+      </c>
+      <c r="AI76" s="1" t="n">
+        <f aca="false">H76</f>
+        <v>13.14</v>
+      </c>
+      <c r="AJ76" s="1" t="n">
+        <f aca="false">I76</f>
+        <v>38645</v>
+      </c>
+      <c r="AK76" s="1" t="n">
+        <f aca="false">J76</f>
+        <v>18.31</v>
+      </c>
+      <c r="AL76" s="1" t="n">
+        <f aca="false">W76</f>
+        <v>33581.4</v>
+      </c>
+      <c r="AM76" s="1" t="n">
+        <f aca="false">X76</f>
+        <v>6.82177</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
@@ -7174,10 +9814,10 @@
         <v>18.27</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M77" s="0" t="n">
         <v>49088.3</v>
@@ -7244,6 +9884,30 @@
         <v>0</v>
       </c>
       <c r="AG77" s="10"/>
+      <c r="AH77" s="1" t="n">
+        <f aca="false">G77</f>
+        <v>45500.39</v>
+      </c>
+      <c r="AI77" s="1" t="n">
+        <f aca="false">H77</f>
+        <v>12.94</v>
+      </c>
+      <c r="AJ77" s="1" t="n">
+        <f aca="false">I77</f>
+        <v>47272.73</v>
+      </c>
+      <c r="AK77" s="1" t="n">
+        <f aca="false">J77</f>
+        <v>18.27</v>
+      </c>
+      <c r="AL77" s="1" t="n">
+        <f aca="false">W77</f>
+        <v>41708.8</v>
+      </c>
+      <c r="AM77" s="1" t="n">
+        <f aca="false">X77</f>
+        <v>8.4117</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
@@ -7277,10 +9941,10 @@
         <v>30.08</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M78" s="0" t="n">
         <v>48730.4</v>
@@ -7345,6 +10009,30 @@
       <c r="AF78" s="10" t="n">
         <f aca="false">(W78-Z78)/Z78*100</f>
         <v>0</v>
+      </c>
+      <c r="AH78" s="1" t="n">
+        <f aca="false">G78</f>
+        <v>44754.67</v>
+      </c>
+      <c r="AI78" s="1" t="n">
+        <f aca="false">H78</f>
+        <v>21.6</v>
+      </c>
+      <c r="AJ78" s="1" t="n">
+        <f aca="false">I78</f>
+        <v>46701.67</v>
+      </c>
+      <c r="AK78" s="1" t="n">
+        <f aca="false">J78</f>
+        <v>30.08</v>
+      </c>
+      <c r="AL78" s="1" t="n">
+        <f aca="false">W78</f>
+        <v>40288.4</v>
+      </c>
+      <c r="AM78" s="1" t="n">
+        <f aca="false">X78</f>
+        <v>1337.85</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7382,7 +10070,7 @@
         <v>31</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M79" s="0" t="n">
         <v>59364.2</v>
@@ -7447,6 +10135,30 @@
       <c r="AF79" s="10" t="n">
         <f aca="false">(W79-Z79)/Z79*100</f>
         <v>0.135244637626755</v>
+      </c>
+      <c r="AH79" s="1" t="n">
+        <f aca="false">G79</f>
+        <v>57091.81</v>
+      </c>
+      <c r="AI79" s="1" t="n">
+        <f aca="false">H79</f>
+        <v>21.71</v>
+      </c>
+      <c r="AJ79" s="1" t="n">
+        <f aca="false">I79</f>
+        <v>58610.81</v>
+      </c>
+      <c r="AK79" s="1" t="n">
+        <f aca="false">J79</f>
+        <v>30.51</v>
+      </c>
+      <c r="AL79" s="1" t="n">
+        <f aca="false">W79</f>
+        <v>52272.3</v>
+      </c>
+      <c r="AM79" s="1" t="n">
+        <f aca="false">X79</f>
+        <v>5.63066</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7481,10 +10193,10 @@
         <v>35.25</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Z80" s="0"/>
       <c r="AA80" s="0"/>
@@ -7523,10 +10235,10 @@
         <v>35.25</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Z81" s="0"/>
       <c r="AA81" s="0"/>
@@ -7541,7 +10253,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>67</v>
@@ -7550,6 +10262,14 @@
       <c r="AA83" s="0"/>
       <c r="AB83" s="0"/>
       <c r="AF83" s="10"/>
+      <c r="AH83" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI83" s="11"/>
+      <c r="AJ83" s="11"/>
+      <c r="AK83" s="11"/>
+      <c r="AL83" s="11"/>
+      <c r="AM83" s="11"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="2" t="s">
@@ -7598,6 +10318,18 @@
       <c r="AA84" s="0"/>
       <c r="AB84" s="0"/>
       <c r="AF84" s="10"/>
+      <c r="AH84" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI84" s="11"/>
+      <c r="AJ84" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK84" s="11"/>
+      <c r="AL84" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM84" s="11"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
@@ -7616,25 +10348,25 @@
         <v>18</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M85" s="0" t="s">
         <v>18</v>
@@ -7692,6 +10424,24 @@
       </c>
       <c r="AF85" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="AH85" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI85" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ85" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK85" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL85" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM85" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7726,10 +10476,10 @@
         <v>0.97</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M86" s="0" t="n">
         <v>83130.7</v>
@@ -7794,6 +10544,30 @@
       <c r="AF86" s="10" t="n">
         <f aca="false">(W86-Z86)/Z86*100</f>
         <v>0.565106335891702</v>
+      </c>
+      <c r="AH86" s="1" t="n">
+        <f aca="false">G86</f>
+        <v>71136.87</v>
+      </c>
+      <c r="AI86" s="1" t="n">
+        <f aca="false">H86</f>
+        <v>0.68</v>
+      </c>
+      <c r="AJ86" s="1" t="n">
+        <f aca="false">I86</f>
+        <v>77925.05</v>
+      </c>
+      <c r="AK86" s="1" t="n">
+        <f aca="false">J86</f>
+        <v>0.97</v>
+      </c>
+      <c r="AL86" s="1" t="n">
+        <f aca="false">W86</f>
+        <v>65435.1</v>
+      </c>
+      <c r="AM86" s="1" t="n">
+        <f aca="false">X86</f>
+        <v>0.0316372</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7828,10 +10602,10 @@
         <v>1.03</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M87" s="0" t="n">
         <v>85342.3</v>
@@ -7896,6 +10670,30 @@
       <c r="AF87" s="10" t="n">
         <f aca="false">(W87-Z87)/Z87*100</f>
         <v>0.87856769720283</v>
+      </c>
+      <c r="AH87" s="1" t="n">
+        <f aca="false">G87</f>
+        <v>72143.01</v>
+      </c>
+      <c r="AI87" s="1" t="n">
+        <f aca="false">H87</f>
+        <v>0.68</v>
+      </c>
+      <c r="AJ87" s="1" t="n">
+        <f aca="false">I87</f>
+        <v>77632.01</v>
+      </c>
+      <c r="AK87" s="1" t="n">
+        <f aca="false">J87</f>
+        <v>1.03</v>
+      </c>
+      <c r="AL87" s="1" t="n">
+        <f aca="false">W87</f>
+        <v>67974.4</v>
+      </c>
+      <c r="AM87" s="1" t="n">
+        <f aca="false">X87</f>
+        <v>0.0361825</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7930,10 +10728,10 @@
         <v>1.32</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M88" s="0" t="n">
         <v>108666</v>
@@ -7998,6 +10796,30 @@
       <c r="AF88" s="10" t="n">
         <f aca="false">(W88-Z88)/Z88*100</f>
         <v>0</v>
+      </c>
+      <c r="AH88" s="1" t="n">
+        <f aca="false">G88</f>
+        <v>94520.96</v>
+      </c>
+      <c r="AI88" s="1" t="n">
+        <f aca="false">H88</f>
+        <v>1.13</v>
+      </c>
+      <c r="AJ88" s="1" t="n">
+        <f aca="false">I88</f>
+        <v>103424.03</v>
+      </c>
+      <c r="AK88" s="1" t="n">
+        <f aca="false">J88</f>
+        <v>1.32</v>
+      </c>
+      <c r="AL88" s="1" t="n">
+        <f aca="false">W88</f>
+        <v>90036.8</v>
+      </c>
+      <c r="AM88" s="1" t="n">
+        <f aca="false">X88</f>
+        <v>0.155309</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8032,10 +10854,10 @@
         <v>1.27</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M89" s="0" t="n">
         <v>109906</v>
@@ -8100,6 +10922,30 @@
       <c r="AF89" s="10" t="n">
         <f aca="false">(W89-Z89)/Z89*100</f>
         <v>0.210865256885897</v>
+      </c>
+      <c r="AH89" s="1" t="n">
+        <f aca="false">G89</f>
+        <v>98382.98</v>
+      </c>
+      <c r="AI89" s="1" t="n">
+        <f aca="false">H89</f>
+        <v>1.07</v>
+      </c>
+      <c r="AJ89" s="1" t="n">
+        <f aca="false">I89</f>
+        <v>104773.53</v>
+      </c>
+      <c r="AK89" s="1" t="n">
+        <f aca="false">J89</f>
+        <v>1.27</v>
+      </c>
+      <c r="AL89" s="1" t="n">
+        <f aca="false">W89</f>
+        <v>93241.4</v>
+      </c>
+      <c r="AM89" s="1" t="n">
+        <f aca="false">X89</f>
+        <v>0.0541605</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8134,10 +10980,10 @@
         <v>5.69</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M90" s="0" t="n">
         <v>400068</v>
@@ -8202,6 +11048,30 @@
       <c r="AF90" s="10" t="n">
         <f aca="false">(W90-Z90)/Z90*100</f>
         <v>0</v>
+      </c>
+      <c r="AH90" s="1" t="n">
+        <f aca="false">G90</f>
+        <v>365961.56</v>
+      </c>
+      <c r="AI90" s="1" t="n">
+        <f aca="false">H90</f>
+        <v>4.46</v>
+      </c>
+      <c r="AJ90" s="1" t="n">
+        <f aca="false">I90</f>
+        <v>376311.46</v>
+      </c>
+      <c r="AK90" s="1" t="n">
+        <f aca="false">J90</f>
+        <v>5.69</v>
+      </c>
+      <c r="AL90" s="1" t="n">
+        <f aca="false">W90</f>
+        <v>325726</v>
+      </c>
+      <c r="AM90" s="1" t="n">
+        <f aca="false">X90</f>
+        <v>3.40695</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8236,10 +11106,10 @@
         <v>5.78</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M91" s="0" t="n">
         <v>393197</v>
@@ -8304,6 +11174,30 @@
       <c r="AF91" s="10" t="n">
         <f aca="false">(W91-Z91)/Z91*100</f>
         <v>0</v>
+      </c>
+      <c r="AH91" s="1" t="n">
+        <f aca="false">G91</f>
+        <v>369432.14</v>
+      </c>
+      <c r="AI91" s="1" t="n">
+        <f aca="false">H91</f>
+        <v>4.51</v>
+      </c>
+      <c r="AJ91" s="1" t="n">
+        <f aca="false">I91</f>
+        <v>386731.26</v>
+      </c>
+      <c r="AK91" s="1" t="n">
+        <f aca="false">J91</f>
+        <v>5.78</v>
+      </c>
+      <c r="AL91" s="1" t="n">
+        <f aca="false">W91</f>
+        <v>327907</v>
+      </c>
+      <c r="AM91" s="1" t="n">
+        <f aca="false">X91</f>
+        <v>6.20277</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8338,10 +11232,10 @@
         <v>6.82</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M92" s="0" t="n">
         <v>463809</v>
@@ -8406,6 +11300,30 @@
       <c r="AF92" s="10" t="n">
         <f aca="false">(W92-Z92)/Z92*100</f>
         <v>0</v>
+      </c>
+      <c r="AH92" s="1" t="n">
+        <f aca="false">G92</f>
+        <v>431162.78</v>
+      </c>
+      <c r="AI92" s="1" t="n">
+        <f aca="false">H92</f>
+        <v>5.35</v>
+      </c>
+      <c r="AJ92" s="1" t="n">
+        <f aca="false">I92</f>
+        <v>454856.19</v>
+      </c>
+      <c r="AK92" s="1" t="n">
+        <f aca="false">J92</f>
+        <v>6.82</v>
+      </c>
+      <c r="AL92" s="1" t="n">
+        <f aca="false">W92</f>
+        <v>401857</v>
+      </c>
+      <c r="AM92" s="1" t="n">
+        <f aca="false">X92</f>
+        <v>1.64327</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8440,10 +11358,10 @@
         <v>6.74</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M93" s="0" t="n">
         <v>486609</v>
@@ -8508,6 +11426,30 @@
       <c r="AF93" s="10" t="n">
         <f aca="false">(W93-Z93)/Z93*100</f>
         <v>0</v>
+      </c>
+      <c r="AH93" s="1" t="n">
+        <f aca="false">G93</f>
+        <v>443569.1</v>
+      </c>
+      <c r="AI93" s="1" t="n">
+        <f aca="false">H93</f>
+        <v>5.24</v>
+      </c>
+      <c r="AJ93" s="1" t="n">
+        <f aca="false">I93</f>
+        <v>466299.03</v>
+      </c>
+      <c r="AK93" s="1" t="n">
+        <f aca="false">J93</f>
+        <v>6.74</v>
+      </c>
+      <c r="AL93" s="1" t="n">
+        <f aca="false">W93</f>
+        <v>411541</v>
+      </c>
+      <c r="AM93" s="1" t="n">
+        <f aca="false">X93</f>
+        <v>0.76502</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8542,10 +11484,10 @@
         <v>16.41</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M94" s="0" t="n">
         <v>886389</v>
@@ -8610,6 +11552,30 @@
       <c r="AF94" s="10" t="n">
         <f aca="false">(W94-Z94)/Z94*100</f>
         <v>0</v>
+      </c>
+      <c r="AH94" s="1" t="n">
+        <f aca="false">G94</f>
+        <v>805680.13</v>
+      </c>
+      <c r="AI94" s="1" t="n">
+        <f aca="false">H94</f>
+        <v>10.92</v>
+      </c>
+      <c r="AJ94" s="1" t="n">
+        <f aca="false">I94</f>
+        <v>846942.21</v>
+      </c>
+      <c r="AK94" s="1" t="n">
+        <f aca="false">J94</f>
+        <v>16.41</v>
+      </c>
+      <c r="AL94" s="1" t="n">
+        <f aca="false">W94</f>
+        <v>729558</v>
+      </c>
+      <c r="AM94" s="1" t="n">
+        <f aca="false">X94</f>
+        <v>1.35777</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8644,10 +11610,10 @@
         <v>16.51</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M95" s="0" t="n">
         <v>853812</v>
@@ -8712,6 +11678,30 @@
       <c r="AF95" s="10" t="n">
         <f aca="false">(W95-Z95)/Z95*100</f>
         <v>0</v>
+      </c>
+      <c r="AH95" s="1" t="n">
+        <f aca="false">G95</f>
+        <v>804328.17</v>
+      </c>
+      <c r="AI95" s="1" t="n">
+        <f aca="false">H95</f>
+        <v>11.42</v>
+      </c>
+      <c r="AJ95" s="1" t="n">
+        <f aca="false">I95</f>
+        <v>833894.67</v>
+      </c>
+      <c r="AK95" s="1" t="n">
+        <f aca="false">J95</f>
+        <v>16.51</v>
+      </c>
+      <c r="AL95" s="1" t="n">
+        <f aca="false">W95</f>
+        <v>744617</v>
+      </c>
+      <c r="AM95" s="1" t="n">
+        <f aca="false">X95</f>
+        <v>1.6051</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8746,10 +11736,10 @@
         <v>18.36</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M96" s="0" t="n">
         <v>993240</v>
@@ -8814,6 +11804,30 @@
       <c r="AF96" s="10" t="n">
         <f aca="false">(W96-Z96)/Z96*100</f>
         <v>0.389102804019879</v>
+      </c>
+      <c r="AH96" s="1" t="n">
+        <f aca="false">G96</f>
+        <v>938183.51</v>
+      </c>
+      <c r="AI96" s="1" t="n">
+        <f aca="false">H96</f>
+        <v>12.7</v>
+      </c>
+      <c r="AJ96" s="1" t="n">
+        <f aca="false">I96</f>
+        <v>970596.5</v>
+      </c>
+      <c r="AK96" s="1" t="n">
+        <f aca="false">J96</f>
+        <v>18.36</v>
+      </c>
+      <c r="AL96" s="1" t="n">
+        <f aca="false">W96</f>
+        <v>866369</v>
+      </c>
+      <c r="AM96" s="1" t="n">
+        <f aca="false">X96</f>
+        <v>6.89388</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8848,10 +11862,10 @@
         <v>18.41</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M97" s="0" t="n">
         <v>1038850</v>
@@ -8916,6 +11930,30 @@
       <c r="AF97" s="10" t="n">
         <f aca="false">(W97-Z97)/Z97*100</f>
         <v>0.0116913168242679</v>
+      </c>
+      <c r="AH97" s="1" t="n">
+        <f aca="false">G97</f>
+        <v>957752.81</v>
+      </c>
+      <c r="AI97" s="1" t="n">
+        <f aca="false">H97</f>
+        <v>12.43</v>
+      </c>
+      <c r="AJ97" s="1" t="n">
+        <f aca="false">I97</f>
+        <v>991909.63</v>
+      </c>
+      <c r="AK97" s="1" t="n">
+        <f aca="false">J97</f>
+        <v>18.41</v>
+      </c>
+      <c r="AL97" s="1" t="n">
+        <f aca="false">W97</f>
+        <v>863990</v>
+      </c>
+      <c r="AM97" s="1" t="n">
+        <f aca="false">X97</f>
+        <v>17.7702</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8950,10 +11988,10 @@
         <v>31.01</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M98" s="0" t="n">
         <v>1471300</v>
@@ -9018,6 +12056,30 @@
       <c r="AF98" s="10" t="n">
         <f aca="false">(W98-Z98)/Z98*100</f>
         <v>0</v>
+      </c>
+      <c r="AH98" s="1" t="n">
+        <f aca="false">G98</f>
+        <v>1410304.44</v>
+      </c>
+      <c r="AI98" s="1" t="n">
+        <f aca="false">H98</f>
+        <v>21.11</v>
+      </c>
+      <c r="AJ98" s="1" t="n">
+        <f aca="false">I98</f>
+        <v>1458897.44</v>
+      </c>
+      <c r="AK98" s="1" t="n">
+        <f aca="false">J98</f>
+        <v>31.01</v>
+      </c>
+      <c r="AL98" s="1" t="n">
+        <f aca="false">W98</f>
+        <v>1292540</v>
+      </c>
+      <c r="AM98" s="1" t="n">
+        <f aca="false">X98</f>
+        <v>9.66943</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9052,10 +12114,10 @@
         <v>32.95</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M99" s="0" t="n">
         <v>1484300</v>
@@ -9120,6 +12182,30 @@
       <c r="AF99" s="10" t="n">
         <f aca="false">(W99-Z99)/Z99*100</f>
         <v>0</v>
+      </c>
+      <c r="AH99" s="1" t="n">
+        <f aca="false">G99</f>
+        <v>1431865.72</v>
+      </c>
+      <c r="AI99" s="1" t="n">
+        <f aca="false">H99</f>
+        <v>21.51</v>
+      </c>
+      <c r="AJ99" s="1" t="n">
+        <f aca="false">I99</f>
+        <v>1474944.72</v>
+      </c>
+      <c r="AK99" s="1" t="n">
+        <f aca="false">J99</f>
+        <v>32.95</v>
+      </c>
+      <c r="AL99" s="1" t="n">
+        <f aca="false">W99</f>
+        <v>1295570</v>
+      </c>
+      <c r="AM99" s="1" t="n">
+        <f aca="false">X99</f>
+        <v>11.9045</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9154,10 +12240,10 @@
         <v>34.4</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Z100" s="0"/>
       <c r="AA100" s="0"/>
@@ -9196,10 +12282,10 @@
         <v>32.57</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Z101" s="0"/>
       <c r="AA101" s="0"/>
@@ -9207,7 +12293,7 @@
       <c r="AF101" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="84">
     <mergeCell ref="P1:W1"/>
     <mergeCell ref="AB1:AH1"/>
     <mergeCell ref="E2:F2"/>
@@ -9250,7 +12336,7 @@
     <mergeCell ref="Z30:AA30"/>
     <mergeCell ref="AJ30:AK30"/>
     <mergeCell ref="M43:T43"/>
-    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AH43:AM43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="I44:J44"/>
@@ -9261,10 +12347,10 @@
     <mergeCell ref="S44:T44"/>
     <mergeCell ref="U44:V44"/>
     <mergeCell ref="W44:X44"/>
-    <mergeCell ref="AG55:AL55"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="AH44:AI44"/>
+    <mergeCell ref="AJ44:AK44"/>
+    <mergeCell ref="AL44:AM44"/>
+    <mergeCell ref="AH63:AM63"/>
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="I64:J64"/>
@@ -9275,7 +12361,10 @@
     <mergeCell ref="S64:T64"/>
     <mergeCell ref="U64:V64"/>
     <mergeCell ref="W64:X64"/>
-    <mergeCell ref="AG67:AH67"/>
+    <mergeCell ref="AH64:AI64"/>
+    <mergeCell ref="AJ64:AK64"/>
+    <mergeCell ref="AL64:AM64"/>
+    <mergeCell ref="AH83:AM83"/>
     <mergeCell ref="E84:F84"/>
     <mergeCell ref="G84:H84"/>
     <mergeCell ref="I84:J84"/>
@@ -9286,6 +12375,9 @@
     <mergeCell ref="S84:T84"/>
     <mergeCell ref="U84:V84"/>
     <mergeCell ref="W84:X84"/>
+    <mergeCell ref="AH84:AI84"/>
+    <mergeCell ref="AJ84:AK84"/>
+    <mergeCell ref="AL84:AM84"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -9294,5 +12386,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>